--- a/高考体育成绩对照表.xlsx
+++ b/高考体育成绩对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13470" windowHeight="6600"/>
+    <workbookView windowWidth="15240" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="ˎ̥"/>
+        <charset val="0"/>
+      </rPr>
       <t>100</t>
     </r>
     <r>
@@ -27,23 +34,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
-      </rPr>
-      <t>米</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>米</t>
     </r>
@@ -85,7 +76,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ˎ̥"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -100,7 +90,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="ˎ̥"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -108,8 +97,22 @@
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -122,6 +125,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,15 +193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -175,21 +216,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,38 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,25 +252,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -280,37 +267,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,108 +303,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,7 +315,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,13 +411,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +461,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +515,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,32 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -579,10 +566,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +578,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1047,7 @@
   <dimension ref="B2:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1084,29 +1071,27 @@
     <col min="17" max="17" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="30" spans="2:17">
+    <row r="2" ht="15.75" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1114,35 +1099,35 @@
     </row>
     <row r="3" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="2"/>
     </row>

--- a/高考体育成绩对照表.xlsx
+++ b/高考体育成绩对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15240" windowHeight="4755"/>
+    <workbookView windowWidth="14745" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,6 +267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,6 +297,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,13 +351,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,25 +405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,43 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,10 +566,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,16 +578,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,10 +599,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,28 +623,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -653,58 +653,58 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="B2:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/高考体育成绩对照表.xlsx
+++ b/高考体育成绩对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14745" windowHeight="7485"/>
+    <workbookView windowWidth="14265" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+  <si>
+    <t>甲</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -54,16 +57,19 @@
   <si>
     <t>女子成绩</t>
   </si>
+  <si>
+    <t>乙</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -107,6 +113,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -130,9 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -140,7 +182,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -149,20 +206,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,45 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,6 +291,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,67 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +381,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +487,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,141 +564,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,10 +683,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,22 +695,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:Q105"/>
+  <dimension ref="B1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1071,27 +1077,32 @@
     <col min="17" max="17" width="7" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" ht="15.75" spans="2:17">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1099,35 +1110,35 @@
     </row>
     <row r="3" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
@@ -5664,8 +5675,918 @@
     <row r="105" spans="2:2">
       <c r="B105" s="4"/>
     </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" spans="2:17">
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" customHeight="1" spans="2:17">
+      <c r="B108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" ht="15.75" spans="2:17">
+      <c r="B109" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="C109" s="3">
+        <v>25</v>
+      </c>
+      <c r="D109" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="E109" s="3">
+        <v>24.68</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="G109" s="3">
+        <v>24</v>
+      </c>
+      <c r="H109" s="3">
+        <v>2.26</v>
+      </c>
+      <c r="I109" s="3">
+        <v>24</v>
+      </c>
+      <c r="J109" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="K109" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="L109" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="M109" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="N109" s="3">
+        <v>132.8</v>
+      </c>
+      <c r="O109" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="P109" s="3">
+        <v>158.3</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" spans="2:17">
+      <c r="B110" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="C110" s="3">
+        <v>24.33</v>
+      </c>
+      <c r="D110" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="E110" s="3">
+        <v>24.36</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="G110" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="H110" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="I110" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="J110" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="K110" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="L110" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="M110" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="N110" s="3">
+        <v>133.5</v>
+      </c>
+      <c r="O110" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="P110" s="3">
+        <v>159.3</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" spans="2:17">
+      <c r="B111" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="C111" s="3">
+        <v>23.66</v>
+      </c>
+      <c r="D111" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="E111" s="3">
+        <v>24.04</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G111" s="3">
+        <v>23</v>
+      </c>
+      <c r="H111" s="3">
+        <v>2.24</v>
+      </c>
+      <c r="I111" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="J111" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="K111" s="3">
+        <v>23</v>
+      </c>
+      <c r="L111" s="3">
+        <v>8</v>
+      </c>
+      <c r="M111" s="3">
+        <v>23</v>
+      </c>
+      <c r="N111" s="3">
+        <v>134.2</v>
+      </c>
+      <c r="O111" s="3">
+        <v>23</v>
+      </c>
+      <c r="P111" s="3">
+        <v>160.2</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="2:17">
+      <c r="B112" s="3">
+        <v>13</v>
+      </c>
+      <c r="C112" s="3">
+        <v>22.99</v>
+      </c>
+      <c r="D112" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E112" s="3">
+        <v>23.72</v>
+      </c>
+      <c r="F112" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="G112" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="H112" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="I112" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="J112" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="K112" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="L112" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="M112" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="N112" s="3">
+        <v>134.9</v>
+      </c>
+      <c r="O112" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="P112" s="3">
+        <v>161.2</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" spans="2:17">
+      <c r="B113" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="C113" s="3">
+        <v>22.32</v>
+      </c>
+      <c r="D113" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="E113" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="G113" s="3">
+        <v>22</v>
+      </c>
+      <c r="H113" s="3">
+        <v>2.22</v>
+      </c>
+      <c r="I113" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="J113" s="3">
+        <v>10.2</v>
+      </c>
+      <c r="K113" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="L113" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="M113" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="N113" s="3">
+        <v>135.6</v>
+      </c>
+      <c r="O113" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="P113" s="3">
+        <v>162.1</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" spans="2:17">
+      <c r="B114" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C114" s="3">
+        <v>21.65</v>
+      </c>
+      <c r="D114" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="E114" s="3">
+        <v>23.08</v>
+      </c>
+      <c r="F114" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="G114" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="H114" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="I114" s="3">
+        <v>22</v>
+      </c>
+      <c r="J114" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="K114" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="L114" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="M114" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="N114" s="3">
+        <v>136.3</v>
+      </c>
+      <c r="O114" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="P114" s="3">
+        <v>163.1</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" spans="2:17">
+      <c r="B115" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C115" s="3">
+        <v>20.98</v>
+      </c>
+      <c r="D115" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="E115" s="3">
+        <v>22.76</v>
+      </c>
+      <c r="F115" s="3">
+        <v>2.66</v>
+      </c>
+      <c r="G115" s="3">
+        <v>21</v>
+      </c>
+      <c r="H115" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="I115" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="J115" s="3">
+        <v>10</v>
+      </c>
+      <c r="K115" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="L115" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="M115" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="N115" s="3">
+        <v>137</v>
+      </c>
+      <c r="O115" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="P115" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" spans="2:17">
+      <c r="B116" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="C116" s="3">
+        <v>20.31</v>
+      </c>
+      <c r="D116" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="E116" s="3">
+        <v>22.44</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="G116" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="H116" s="3">
+        <v>2.19</v>
+      </c>
+      <c r="I116" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="J116" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="K116" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="L116" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="M116" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="N116" s="3">
+        <v>137.7</v>
+      </c>
+      <c r="O116" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="P116" s="3">
+        <v>165</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" spans="2:17">
+      <c r="B117" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C117" s="3">
+        <v>19.64</v>
+      </c>
+      <c r="D117" s="3">
+        <v>15</v>
+      </c>
+      <c r="E117" s="3">
+        <v>22.12</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="G117" s="3">
+        <v>20</v>
+      </c>
+      <c r="H117" s="3">
+        <v>2.18</v>
+      </c>
+      <c r="I117" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="J117" s="3">
+        <v>9.8</v>
+      </c>
+      <c r="K117" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="L117" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="M117" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="N117" s="3">
+        <v>138.4</v>
+      </c>
+      <c r="O117" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="P117" s="3">
+        <v>165.9</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" spans="2:17">
+      <c r="B118" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="C118" s="3">
+        <v>18.97</v>
+      </c>
+      <c r="D118" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="G118" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="H118" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="I118" s="3">
+        <v>20.4</v>
+      </c>
+      <c r="J118" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="K118" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="L118" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="M118" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="N118" s="3">
+        <v>139.1</v>
+      </c>
+      <c r="O118" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="P118" s="3">
+        <v>166.9</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" spans="2:17">
+      <c r="B119" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="C119" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="D119" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="E119" s="3">
+        <v>21.48</v>
+      </c>
+      <c r="F119" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="G119" s="3">
+        <v>19</v>
+      </c>
+      <c r="H119" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="I119" s="3">
+        <v>20</v>
+      </c>
+      <c r="J119" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="K119" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="L119" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="M119" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="N119" s="3">
+        <v>139.8</v>
+      </c>
+      <c r="O119" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="P119" s="3">
+        <v>167.8</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" spans="2:17">
+      <c r="B120" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C120" s="3">
+        <v>17.63</v>
+      </c>
+      <c r="D120" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="E120" s="3">
+        <v>21.16</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2.61</v>
+      </c>
+      <c r="G120" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="H120" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="I120" s="3">
+        <v>19.6</v>
+      </c>
+      <c r="J120" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="K120" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="L120" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="M120" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="N120" s="3">
+        <v>140.5</v>
+      </c>
+      <c r="O120" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="P120" s="3">
+        <v>168.8</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" spans="2:17">
+      <c r="B121" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C121" s="3">
+        <v>16.96</v>
+      </c>
+      <c r="D121" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="E121" s="3">
+        <v>20.84</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="G121" s="3">
+        <v>18</v>
+      </c>
+      <c r="H121" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="I121" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="J121" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="K121" s="3">
+        <v>20</v>
+      </c>
+      <c r="L121" s="3">
+        <v>7</v>
+      </c>
+      <c r="M121" s="3">
+        <v>20</v>
+      </c>
+      <c r="N121" s="3">
+        <v>141.2</v>
+      </c>
+      <c r="O121" s="3">
+        <v>20</v>
+      </c>
+      <c r="P121" s="3">
+        <v>169.7</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" spans="2:17">
+      <c r="B122" s="3">
+        <v>14</v>
+      </c>
+      <c r="C122" s="3">
+        <v>16.29</v>
+      </c>
+      <c r="D122" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="E122" s="3">
+        <v>20.52</v>
+      </c>
+      <c r="F122" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="G122" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="H122" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="I122" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="J122" s="3">
+        <v>9.3</v>
+      </c>
+      <c r="K122" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="L122" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="M122" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="N122" s="3">
+        <v>141.9</v>
+      </c>
+      <c r="O122" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="P122" s="3">
+        <v>170.7</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" spans="2:17">
+      <c r="B123" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C123" s="3">
+        <v>15.62</v>
+      </c>
+      <c r="D123" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="G123" s="3">
+        <v>17</v>
+      </c>
+      <c r="H123" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="I123" s="3">
+        <v>18.4</v>
+      </c>
+      <c r="J123" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="K123" s="3">
+        <v>19.4</v>
+      </c>
+      <c r="L123" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="M123" s="3">
+        <v>19.4</v>
+      </c>
+      <c r="N123" s="3">
+        <v>142.6</v>
+      </c>
+      <c r="O123" s="3">
+        <v>19.4</v>
+      </c>
+      <c r="P123" s="3">
+        <v>171.6</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" spans="2:17">
+      <c r="B124" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="C124" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="D124" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="E124" s="3">
+        <v>19.88</v>
+      </c>
+      <c r="F124" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="G124" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="H124" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="I124" s="3">
+        <v>18</v>
+      </c>
+      <c r="J124" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="K124" s="3">
+        <v>19.1</v>
+      </c>
+      <c r="L124" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="M124" s="3">
+        <v>19.1</v>
+      </c>
+      <c r="N124" s="3">
+        <v>143.3</v>
+      </c>
+      <c r="O124" s="3">
+        <v>19.1</v>
+      </c>
+      <c r="P124" s="3">
+        <v>172.6</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="3:3">
+      <c r="C125" s="3">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" spans="3:3">
+      <c r="C126" s="3">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" spans="3:3">
+      <c r="C127" s="3">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="3:3">
+      <c r="C128" s="3">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" spans="3:3">
+      <c r="C129" s="3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" spans="3:3">
+      <c r="C130" s="3">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" spans="3:3">
+      <c r="C131" s="3">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" spans="3:3">
+      <c r="C132" s="3">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" spans="3:3">
+      <c r="C133" s="3">
+        <v>8.92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -5675,6 +6596,15 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P108:Q108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
